--- a/К защите/Саша/В диплом/На защиту/Графики.xlsx
+++ b/К защите/Саша/В диплом/На защиту/Графики.xlsx
@@ -894,11 +894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369379200"/>
-        <c:axId val="369380736"/>
+        <c:axId val="301340544"/>
+        <c:axId val="301342080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369379200"/>
+        <c:axId val="301340544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,12 +908,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="369380736"/>
+        <c:crossAx val="301342080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="369380736"/>
+        <c:axId val="301342080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="369379200"/>
+        <c:crossAx val="301340544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1321,11 +1321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369393024"/>
-        <c:axId val="369411200"/>
+        <c:axId val="301354368"/>
+        <c:axId val="301368448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369393024"/>
+        <c:axId val="301354368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,12 +1335,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="369411200"/>
+        <c:crossAx val="301368448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="369411200"/>
+        <c:axId val="301368448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="369393024"/>
+        <c:crossAx val="301354368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1748,11 +1748,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370545792"/>
-        <c:axId val="370547328"/>
+        <c:axId val="301409408"/>
+        <c:axId val="301410944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370545792"/>
+        <c:axId val="301409408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,12 +1762,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370547328"/>
+        <c:crossAx val="301410944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370547328"/>
+        <c:axId val="301410944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370545792"/>
+        <c:crossAx val="301409408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1855,10 +1855,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10608397993966601"/>
-          <c:y val="0.15078962893614736"/>
-          <c:w val="0.8271106901111045"/>
-          <c:h val="0.75403142315543892"/>
+          <c:x val="4.7382130637766466E-2"/>
+          <c:y val="9.5747502584529576E-2"/>
+          <c:w val="0.91242446009671885"/>
+          <c:h val="0.80907362023104457"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -2155,23 +2155,61 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="370612096"/>
-        <c:axId val="370613632"/>
-        <c:axId val="367065280"/>
+        <c:axId val="301737856"/>
+        <c:axId val="301739392"/>
+        <c:axId val="301455552"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="370612096"/>
+        <c:axId val="301737856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>max/min </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>времени</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>переналадки</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.5682182919700765E-2"/>
+              <c:y val="0.86281623286828169"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370613632"/>
+        <c:crossAx val="301739392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,33 +2217,97 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370613632"/>
+        <c:axId val="301739392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400"/>
+                  <a:t>количество                  обработан-</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="uk-UA" sz="1400"/>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400"/>
+                  <a:t>ных партий </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3107890754838042E-2"/>
+              <c:y val="7.8762130241798706E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370612096"/>
+        <c:crossAx val="301737856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="367065280"/>
+        <c:axId val="301455552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>max/min </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400"/>
+                  <a:t>времени обработки</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.77429076547330866"/>
+              <c:y val="0.80333579236919261"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370613632"/>
+        <c:crossAx val="301739392"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -2625,23 +2727,71 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="373255552"/>
-        <c:axId val="373257344"/>
-        <c:axId val="373473728"/>
+        <c:axId val="301785088"/>
+        <c:axId val="301786624"/>
+        <c:axId val="301741376"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="373255552"/>
+        <c:axId val="301785088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>max/min </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>времени</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>переналадки</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.12295565774900855"/>
+              <c:y val="0.85370701450097308"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373257344"/>
+        <c:crossAx val="301786624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2649,33 +2799,112 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373257344"/>
+        <c:axId val="301786624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>количествообработан-</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="uk-UA" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ных партий </a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.9674309057046903E-2"/>
+              <c:y val="0.17006174602359109"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373255552"/>
+        <c:crossAx val="301785088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="373473728"/>
+        <c:axId val="301741376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>max/min </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>времени обработки</a:t>
+                </a:r>
+                <a:endParaRPr lang="uk-UA" sz="800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.78934393931799451"/>
+              <c:y val="0.726574727383829"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373257344"/>
+        <c:crossAx val="301786624"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -2727,14 +2956,10 @@
               <a:t>0 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="ru-RU"/>
               <a:t>оптимизация</a:t>
             </a:r>
-            <a:endParaRPr lang="uk-UA">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3103,12 +3328,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="372726016"/>
-        <c:axId val="373127040"/>
-        <c:axId val="373688960"/>
+        <c:axId val="272873344"/>
+        <c:axId val="272874880"/>
+        <c:axId val="272826816"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="372726016"/>
+        <c:axId val="272873344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3344,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373127040"/>
+        <c:crossAx val="272874880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3127,7 +3352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373127040"/>
+        <c:axId val="272874880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,12 +3363,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372726016"/>
+        <c:crossAx val="272873344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="373688960"/>
+        <c:axId val="272826816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,7 +3378,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373127040"/>
+        <c:crossAx val="272874880"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3585,12 +3810,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="85470592"/>
-        <c:axId val="85472384"/>
-        <c:axId val="85479424"/>
+        <c:axId val="272908288"/>
+        <c:axId val="272909824"/>
+        <c:axId val="272829952"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="85470592"/>
+        <c:axId val="272908288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3601,7 +3826,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85472384"/>
+        <c:crossAx val="272909824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3609,7 +3834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85472384"/>
+        <c:axId val="272909824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,12 +3845,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85470592"/>
+        <c:crossAx val="272908288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="85479424"/>
+        <c:axId val="272829952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,7 +3860,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85472384"/>
+        <c:crossAx val="272909824"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3687,14 +3912,10 @@
               <a:t>0 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="ru-RU"/>
               <a:t>оптимизация</a:t>
             </a:r>
-            <a:endParaRPr lang="uk-UA">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4063,12 +4284,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="372440448"/>
-        <c:axId val="373215232"/>
-        <c:axId val="373897408"/>
+        <c:axId val="272934784"/>
+        <c:axId val="272936320"/>
+        <c:axId val="272927360"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="372440448"/>
+        <c:axId val="272934784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4079,7 +4300,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373215232"/>
+        <c:crossAx val="272936320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4087,7 +4308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373215232"/>
+        <c:axId val="272936320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4098,12 +4319,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372440448"/>
+        <c:crossAx val="272934784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="373897408"/>
+        <c:axId val="272927360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4113,7 +4334,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373215232"/>
+        <c:crossAx val="272936320"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -4545,12 +4766,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="87564672"/>
-        <c:axId val="87566208"/>
-        <c:axId val="373711744"/>
+        <c:axId val="273308672"/>
+        <c:axId val="273310464"/>
+        <c:axId val="273303296"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="87564672"/>
+        <c:axId val="273308672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4561,7 +4782,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87566208"/>
+        <c:crossAx val="273310464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4569,7 +4790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87566208"/>
+        <c:axId val="273310464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4580,12 +4801,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87564672"/>
+        <c:crossAx val="273308672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="373711744"/>
+        <c:axId val="273303296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4595,7 +4816,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87566208"/>
+        <c:crossAx val="273310464"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -5189,8 +5410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
